--- a/profil_verileri.xlsx
+++ b/profil_verileri.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Profil</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Sz (mm³)</t>
-  </si>
-  <si>
-    <t>Sy = Sz (mm³)</t>
   </si>
   <si>
     <t>Iu (mm⁴)</t>
@@ -566,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BF8"/>
+  <dimension ref="A1:BE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +741,10 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:57">
+      <c r="A2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
-      <c r="A2" t="s">
-        <v>58</v>
       </c>
       <c r="B2">
         <v>96</v>
@@ -812,22 +806,22 @@
       <c r="AQ2">
         <v>20600</v>
       </c>
+      <c r="AY2">
+        <v>2580000000</v>
+      </c>
       <c r="AZ2">
-        <v>2580000000</v>
+        <v>52400</v>
       </c>
       <c r="BA2">
-        <v>52400</v>
+        <v>23.11</v>
       </c>
       <c r="BB2">
-        <v>23.11</v>
-      </c>
-      <c r="BC2">
         <v>47.69</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:57">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>114</v>
@@ -889,22 +883,22 @@
       <c r="AQ3">
         <v>29400</v>
       </c>
+      <c r="AY3">
+        <v>6470000000</v>
+      </c>
       <c r="AZ3">
-        <v>6470000000</v>
+        <v>59900</v>
       </c>
       <c r="BA3">
-        <v>59900</v>
+        <v>27.8</v>
       </c>
       <c r="BB3">
-        <v>27.8</v>
-      </c>
-      <c r="BC3">
         <v>57.48</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:57">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -948,13 +942,13 @@
       <c r="AQ4">
         <v>2125</v>
       </c>
-      <c r="BA4">
+      <c r="AZ4">
         <v>121000</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:57">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>6410</v>
@@ -968,13 +962,13 @@
       <c r="X5">
         <v>3</v>
       </c>
-      <c r="BA5">
+      <c r="AZ5">
         <v>140000</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:57">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>1180</v>
@@ -991,13 +985,13 @@
       <c r="X6">
         <v>1.08</v>
       </c>
-      <c r="BA6">
+      <c r="AZ6">
         <v>12600</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:57">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1041,16 +1035,16 @@
       <c r="AN7">
         <v>5.89</v>
       </c>
-      <c r="BA7">
+      <c r="AZ7">
         <v>328.9</v>
       </c>
-      <c r="BC7">
+      <c r="BB7">
         <v>8.32</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:57">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8">
         <v>2</v>

--- a/profil_verileri.xlsx
+++ b/profil_verileri.xlsx
@@ -14,21 +14,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Profil</t>
   </si>
   <si>
+    <t>A (mm²)</t>
+  </si>
+  <si>
+    <t>AL (m²/m)</t>
+  </si>
+  <si>
+    <t>Ct (mm³)</t>
+  </si>
+  <si>
+    <t>D (mm)</t>
+  </si>
+  <si>
+    <t>G (kg/m)</t>
+  </si>
+  <si>
+    <t>It (mm⁴)</t>
+  </si>
+  <si>
+    <t>Iu (mm⁴)</t>
+  </si>
+  <si>
+    <t>Iv (mm⁴)</t>
+  </si>
+  <si>
+    <t>Iw (mm⁶)</t>
+  </si>
+  <si>
+    <t>Iy (mm⁴)</t>
+  </si>
+  <si>
+    <t>Iyz (mm⁴)</t>
+  </si>
+  <si>
+    <t>Iz (mm⁴)</t>
+  </si>
+  <si>
+    <t>Sy (mm³)</t>
+  </si>
+  <si>
+    <t>Sz (mm³)</t>
+  </si>
+  <si>
+    <t>T (mm)</t>
+  </si>
+  <si>
+    <t>Wu1 (mm³)</t>
+  </si>
+  <si>
+    <t>Wv2 (mm³)</t>
+  </si>
+  <si>
+    <t>Wv3 (mm³)</t>
+  </si>
+  <si>
+    <t>Wy (mm³)</t>
+  </si>
+  <si>
+    <t>Wy,el (mm³)</t>
+  </si>
+  <si>
+    <t>Wy,pl (mm³)</t>
+  </si>
+  <si>
+    <t>Wy1 (mm³)</t>
+  </si>
+  <si>
+    <t>Wy2 (mm³)</t>
+  </si>
+  <si>
+    <t>Wz (mm³)</t>
+  </si>
+  <si>
+    <t>Wz,el (mm³)</t>
+  </si>
+  <si>
+    <t>Wz,pl (mm³)</t>
+  </si>
+  <si>
+    <t>Wz1 (mm³)</t>
+  </si>
+  <si>
+    <t>Wz2 (mm³)</t>
+  </si>
+  <si>
+    <t>Wz3 (mm³)</t>
+  </si>
+  <si>
+    <t>a (mm)</t>
+  </si>
+  <si>
+    <t>b (mm)</t>
+  </si>
+  <si>
+    <t>d (mm)</t>
+  </si>
+  <si>
     <t>h (mm)</t>
   </si>
   <si>
-    <t>b (mm)</t>
-  </si>
-  <si>
-    <t>a (mm)</t>
-  </si>
-  <si>
-    <t>D (mm)</t>
+    <t>h = b (mm)</t>
+  </si>
+  <si>
+    <t>ipa (mm)</t>
+  </si>
+  <si>
+    <t>ipc (mm)</t>
+  </si>
+  <si>
+    <t>iu (mm)</t>
+  </si>
+  <si>
+    <t>iv (mm)</t>
+  </si>
+  <si>
+    <t>iw (mm)</t>
+  </si>
+  <si>
+    <t>iy (mm)</t>
+  </si>
+  <si>
+    <t>iz (mm)</t>
+  </si>
+  <si>
+    <t>r (mm)</t>
+  </si>
+  <si>
+    <t>r1 (mm)</t>
+  </si>
+  <si>
+    <t>r2 (mm)</t>
+  </si>
+  <si>
+    <t>ri (mm)</t>
+  </si>
+  <si>
+    <t>ro (mm)</t>
+  </si>
+  <si>
+    <t>s = t (mm)</t>
+  </si>
+  <si>
+    <t>t (mm)</t>
   </si>
   <si>
     <t>tf (mm)</t>
@@ -37,154 +169,34 @@
     <t>tw (mm)</t>
   </si>
   <si>
-    <t>t (mm)</t>
-  </si>
-  <si>
-    <t>T (mm)</t>
-  </si>
-  <si>
-    <t>r1 (mm)</t>
-  </si>
-  <si>
-    <t>r2 (mm)</t>
-  </si>
-  <si>
-    <t>r (mm)</t>
+    <t>u (mm)</t>
+  </si>
+  <si>
+    <t>u' (°)</t>
+  </si>
+  <si>
+    <t>u1 (mm)</t>
+  </si>
+  <si>
+    <t>u2 (mm)</t>
+  </si>
+  <si>
+    <t>um (mm)</t>
+  </si>
+  <si>
+    <t>v (mm)</t>
+  </si>
+  <si>
+    <t>y's (mm)</t>
   </si>
   <si>
     <t>ys (mm)</t>
   </si>
   <si>
-    <t>y's (mm)</t>
+    <t>z's (mm)</t>
   </si>
   <si>
     <t>zs (mm)</t>
-  </si>
-  <si>
-    <t>z's (mm)</t>
-  </si>
-  <si>
-    <t>d (mm)</t>
-  </si>
-  <si>
-    <t>v (mm)</t>
-  </si>
-  <si>
-    <t>u1 (mm)</t>
-  </si>
-  <si>
-    <t>u2 (mm)</t>
-  </si>
-  <si>
-    <t>um (mm)</t>
-  </si>
-  <si>
-    <t>A (mm²)</t>
-  </si>
-  <si>
-    <t>AL (m²/m)</t>
-  </si>
-  <si>
-    <t>G (kg/m)</t>
-  </si>
-  <si>
-    <t>Iy (mm⁴)</t>
-  </si>
-  <si>
-    <t>Iz (mm⁴)</t>
-  </si>
-  <si>
-    <t>Iy = Iz (mm⁴)</t>
-  </si>
-  <si>
-    <t>Wy1 (mm³)</t>
-  </si>
-  <si>
-    <t>Wy2 (mm³)</t>
-  </si>
-  <si>
-    <t>Wz1 (mm³)</t>
-  </si>
-  <si>
-    <t>Wz2 (mm³)</t>
-  </si>
-  <si>
-    <t>Wz3 (mm³)</t>
-  </si>
-  <si>
-    <t>Wy,el (mm³)</t>
-  </si>
-  <si>
-    <t>Wz,el (mm³)</t>
-  </si>
-  <si>
-    <t>Wy,el = Wz,el (mm³)</t>
-  </si>
-  <si>
-    <t>Wy,pl (mm³)</t>
-  </si>
-  <si>
-    <t>Wz,pl (mm³)</t>
-  </si>
-  <si>
-    <t>Wy,pl = Wz,pl (mm³)</t>
-  </si>
-  <si>
-    <t>iy (mm)</t>
-  </si>
-  <si>
-    <t>iz (mm)</t>
-  </si>
-  <si>
-    <t>iy = iz (mm)</t>
-  </si>
-  <si>
-    <t>Sy (mm³)</t>
-  </si>
-  <si>
-    <t>Sz (mm³)</t>
-  </si>
-  <si>
-    <t>Iu (mm⁴)</t>
-  </si>
-  <si>
-    <t>Iv (mm⁴)</t>
-  </si>
-  <si>
-    <t>Wu1 (mm³)</t>
-  </si>
-  <si>
-    <t>Wv2 (mm³)</t>
-  </si>
-  <si>
-    <t>Wv3 (mm³)</t>
-  </si>
-  <si>
-    <t>iu (mm)</t>
-  </si>
-  <si>
-    <t>iv (mm)</t>
-  </si>
-  <si>
-    <t>Iw (mm⁶)</t>
-  </si>
-  <si>
-    <t>It (mm⁴)</t>
-  </si>
-  <si>
-    <t>iw (mm)</t>
-  </si>
-  <si>
-    <t>ipc (mm)</t>
-  </si>
-  <si>
-    <t>ipa (mm)</t>
-  </si>
-  <si>
-    <t>Ct (mm³)</t>
-  </si>
-  <si>
-    <t>Iyz (mm⁴)</t>
   </si>
   <si>
     <t>HE100A</t>
@@ -563,13 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE8"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,340 +753,400 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:61">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2">
+        <v>2124</v>
+      </c>
+      <c r="C2">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2">
+        <v>16.7</v>
+      </c>
+      <c r="G2">
+        <v>52400</v>
+      </c>
+      <c r="J2">
+        <v>2580000000</v>
+      </c>
+      <c r="K2">
+        <v>3490000</v>
+      </c>
+      <c r="M2">
+        <v>1340000</v>
+      </c>
+      <c r="N2">
+        <v>41500</v>
+      </c>
+      <c r="O2">
+        <v>20600</v>
+      </c>
+      <c r="V2">
+        <v>83000</v>
+      </c>
+      <c r="W2">
+        <v>72800</v>
+      </c>
+      <c r="AA2">
+        <v>41100</v>
+      </c>
+      <c r="AB2">
+        <v>26800</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2">
+        <v>56</v>
+      </c>
+      <c r="AH2">
         <v>96</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+      <c r="AK2">
+        <v>47.69</v>
+      </c>
+      <c r="AN2">
+        <v>23.11</v>
+      </c>
+      <c r="AO2">
+        <v>40.6</v>
+      </c>
+      <c r="AP2">
+        <v>25.1</v>
+      </c>
+      <c r="AR2">
+        <v>12</v>
+      </c>
+      <c r="AX2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="AY2">
         <v>5</v>
       </c>
-      <c r="J2">
+      <c r="BG2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>2534</v>
+      </c>
+      <c r="C3">
+        <v>0.68</v>
+      </c>
+      <c r="F3">
+        <v>19.9</v>
+      </c>
+      <c r="G3">
+        <v>59900</v>
+      </c>
+      <c r="J3">
+        <v>6470000000</v>
+      </c>
+      <c r="K3">
+        <v>6060000</v>
+      </c>
+      <c r="M3">
+        <v>2310000</v>
+      </c>
+      <c r="N3">
+        <v>59800.00000000001</v>
+      </c>
+      <c r="O3">
+        <v>29400</v>
+      </c>
+      <c r="V3">
+        <v>120000</v>
+      </c>
+      <c r="W3">
+        <v>106000</v>
+      </c>
+      <c r="AA3">
+        <v>58800</v>
+      </c>
+      <c r="AB3">
+        <v>38500</v>
+      </c>
+      <c r="AF3">
+        <v>120</v>
+      </c>
+      <c r="AG3">
+        <v>74</v>
+      </c>
+      <c r="AH3">
+        <v>114</v>
+      </c>
+      <c r="AK3">
+        <v>57.48</v>
+      </c>
+      <c r="AN3">
+        <v>27.8</v>
+      </c>
+      <c r="AO3">
+        <v>48.9</v>
+      </c>
+      <c r="AP3">
+        <v>30.2</v>
+      </c>
+      <c r="AR3">
         <v>12</v>
       </c>
-      <c r="M2">
+      <c r="AX3">
+        <v>8</v>
+      </c>
+      <c r="AY3">
+        <v>5</v>
+      </c>
+      <c r="BG3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>382</v>
+      </c>
+      <c r="C4">
+        <v>0.15</v>
+      </c>
+      <c r="D4">
+        <v>5900</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>121000</v>
+      </c>
+      <c r="K4">
+        <v>122000</v>
+      </c>
+      <c r="M4">
+        <v>53800</v>
+      </c>
+      <c r="N4">
+        <v>3060</v>
+      </c>
+      <c r="O4">
+        <v>2125</v>
+      </c>
+      <c r="V4">
+        <v>6120</v>
+      </c>
+      <c r="AA4">
+        <v>4250</v>
+      </c>
+      <c r="AF4">
+        <v>30</v>
+      </c>
+      <c r="AH4">
         <v>50</v>
       </c>
-      <c r="Q2">
-        <v>56</v>
-      </c>
-      <c r="V2">
-        <v>2124</v>
-      </c>
-      <c r="W2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X2">
-        <v>16.7</v>
-      </c>
-      <c r="Y2">
-        <v>3490000</v>
-      </c>
-      <c r="Z2">
-        <v>1340000</v>
-      </c>
-      <c r="AB2">
-        <v>72800</v>
-      </c>
-      <c r="AD2">
-        <v>26800</v>
-      </c>
-      <c r="AJ2">
-        <v>83000</v>
-      </c>
-      <c r="AK2">
-        <v>41100</v>
-      </c>
-      <c r="AM2">
-        <v>40.6</v>
-      </c>
-      <c r="AN2">
-        <v>25.1</v>
-      </c>
-      <c r="AP2">
-        <v>41500</v>
-      </c>
-      <c r="AQ2">
-        <v>20600</v>
-      </c>
-      <c r="AY2">
-        <v>2580000000</v>
-      </c>
-      <c r="AZ2">
-        <v>52400</v>
-      </c>
-      <c r="BA2">
-        <v>23.11</v>
-      </c>
-      <c r="BB2">
-        <v>47.69</v>
+      <c r="AO4">
+        <v>17.9</v>
+      </c>
+      <c r="AP4">
+        <v>11.9</v>
+      </c>
+      <c r="AW4">
+        <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>114</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>74</v>
-      </c>
-      <c r="V3">
-        <v>2534</v>
-      </c>
-      <c r="W3">
-        <v>0.68</v>
-      </c>
-      <c r="X3">
-        <v>19.9</v>
-      </c>
-      <c r="Y3">
-        <v>6060000</v>
-      </c>
-      <c r="Z3">
-        <v>2310000</v>
-      </c>
-      <c r="AB3">
-        <v>106000</v>
-      </c>
-      <c r="AD3">
-        <v>38500</v>
-      </c>
-      <c r="AJ3">
-        <v>120000</v>
-      </c>
-      <c r="AK3">
-        <v>58800</v>
-      </c>
-      <c r="AM3">
-        <v>48.9</v>
-      </c>
-      <c r="AN3">
-        <v>30.2</v>
-      </c>
-      <c r="AP3">
-        <v>59800.00000000001</v>
-      </c>
-      <c r="AQ3">
-        <v>29400</v>
-      </c>
-      <c r="AY3">
-        <v>6470000000</v>
-      </c>
-      <c r="AZ3">
-        <v>59900</v>
-      </c>
-      <c r="BA3">
-        <v>27.8</v>
-      </c>
-      <c r="BB3">
-        <v>57.48</v>
+    <row r="5" spans="1:61">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>382</v>
+      </c>
+      <c r="C5">
+        <v>0.153</v>
+      </c>
+      <c r="D5">
+        <v>6410</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>140000</v>
+      </c>
+      <c r="AW5">
+        <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>5900</v>
-      </c>
-      <c r="V4">
-        <v>382</v>
-      </c>
-      <c r="W4">
-        <v>0.15</v>
-      </c>
-      <c r="X4">
+    <row r="6" spans="1:61">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>137</v>
+      </c>
+      <c r="C6">
+        <v>0.067</v>
+      </c>
+      <c r="D6">
+        <v>1180</v>
+      </c>
+      <c r="F6">
+        <v>1.08</v>
+      </c>
+      <c r="G6">
+        <v>12600</v>
+      </c>
+      <c r="P6">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>111.9</v>
+      </c>
+      <c r="C7">
+        <v>0.07678</v>
+      </c>
+      <c r="F7">
+        <v>0.8784999999999999</v>
+      </c>
+      <c r="G7">
+        <v>328.9</v>
+      </c>
+      <c r="H7">
+        <v>6136</v>
+      </c>
+      <c r="K7">
+        <v>3877</v>
+      </c>
+      <c r="L7">
+        <v>2259</v>
+      </c>
+      <c r="M7">
+        <v>3877</v>
+      </c>
+      <c r="R7">
+        <v>191.8</v>
+      </c>
+      <c r="S7">
+        <v>231</v>
+      </c>
+      <c r="W7">
+        <v>276.2</v>
+      </c>
+      <c r="X7">
+        <v>650</v>
+      </c>
+      <c r="AC7">
+        <v>650</v>
+      </c>
+      <c r="AD7">
+        <v>276.2</v>
+      </c>
+      <c r="AF7">
+        <v>20</v>
+      </c>
+      <c r="AJ7">
+        <v>10.4</v>
+      </c>
+      <c r="AK7">
+        <v>8.32</v>
+      </c>
+      <c r="AL7">
+        <v>7.4</v>
+      </c>
+      <c r="AO7">
+        <v>5.89</v>
+      </c>
+      <c r="AP7">
+        <v>5.89</v>
+      </c>
+      <c r="AR7">
+        <v>3.5</v>
+      </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
         <v>3</v>
       </c>
-      <c r="Y4">
-        <v>122000</v>
-      </c>
-      <c r="Z4">
-        <v>53800</v>
-      </c>
-      <c r="AJ4">
-        <v>6120</v>
-      </c>
-      <c r="AK4">
-        <v>4250</v>
-      </c>
-      <c r="AM4">
-        <v>17.9</v>
-      </c>
-      <c r="AN4">
-        <v>11.9</v>
-      </c>
-      <c r="AP4">
-        <v>3060</v>
-      </c>
-      <c r="AQ4">
-        <v>2125</v>
-      </c>
-      <c r="AZ4">
-        <v>121000</v>
+      <c r="AZ7">
+        <v>7.4</v>
+      </c>
+      <c r="BB7">
+        <v>433.9</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
+      <c r="BD7">
+        <v>6.3</v>
+      </c>
+      <c r="BE7">
+        <v>3.8</v>
+      </c>
+      <c r="BF7">
+        <v>14</v>
+      </c>
+      <c r="BG7">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>6410</v>
-      </c>
-      <c r="V5">
-        <v>382</v>
-      </c>
-      <c r="W5">
-        <v>0.153</v>
-      </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="AZ5">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6">
-        <v>1180</v>
-      </c>
-      <c r="I6">
-        <v>2.3</v>
-      </c>
-      <c r="V6">
-        <v>137</v>
-      </c>
-      <c r="W6">
-        <v>0.067</v>
-      </c>
-      <c r="X6">
-        <v>1.08</v>
-      </c>
-      <c r="AZ6">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>3.5</v>
-      </c>
-      <c r="K7">
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>225.6</v>
+      </c>
+      <c r="C8">
+        <v>0.11288</v>
+      </c>
+      <c r="F8">
+        <v>1.770646</v>
+      </c>
+      <c r="K8">
+        <v>17200</v>
+      </c>
+      <c r="M8">
+        <v>8676</v>
+      </c>
+      <c r="W8">
+        <v>2014</v>
+      </c>
+      <c r="AO8">
+        <v>8.728</v>
+      </c>
+      <c r="AP8">
+        <v>6.202</v>
+      </c>
+      <c r="AR8">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>3.8</v>
-      </c>
-      <c r="V7">
-        <v>111.9</v>
-      </c>
-      <c r="W7">
-        <v>0.07678</v>
-      </c>
-      <c r="X7">
-        <v>0.8784999999999999</v>
-      </c>
-      <c r="Y7">
-        <v>3877</v>
-      </c>
-      <c r="Z7">
-        <v>3877</v>
-      </c>
-      <c r="AB7">
-        <v>276.2</v>
-      </c>
-      <c r="AM7">
-        <v>5.89</v>
-      </c>
-      <c r="AN7">
-        <v>5.89</v>
-      </c>
-      <c r="AZ7">
-        <v>328.9</v>
-      </c>
-      <c r="BB7">
-        <v>8.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
+      <c r="AS8">
         <v>1</v>
-      </c>
-      <c r="V8">
-        <v>225.6</v>
-      </c>
-      <c r="W8">
-        <v>0.11288</v>
-      </c>
-      <c r="X8">
-        <v>1.770646</v>
-      </c>
-      <c r="Y8">
-        <v>17200</v>
-      </c>
-      <c r="Z8">
-        <v>8676</v>
-      </c>
-      <c r="AB8">
-        <v>2014</v>
-      </c>
-      <c r="AM8">
-        <v>8.728</v>
-      </c>
-      <c r="AN8">
-        <v>6.202</v>
       </c>
     </row>
   </sheetData>
